--- a/SS3DMeasure/MAPPING DATA 3DSAMSUNG.xlsx
+++ b/SS3DMeasure/MAPPING DATA 3DSAMSUNG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Tài liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\GitHub\Documents\SS3DMeasure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157FEBF5-64FE-4B3F-8E0B-F061BCDB58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14123BA-DF06-4F41-B40B-20163A7F685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CC5EEF9-80B7-4C14-A79F-F68330C7FC8E}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{5CC5EEF9-80B7-4C14-A79F-F68330C7FC8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>STEP001</t>
   </si>
   <si>
-    <t>RUNSTEP</t>
-  </si>
-  <si>
     <t>LOWV</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>RUN STEP</t>
+  </si>
+  <si>
+    <t>MOVESTEP</t>
   </si>
 </sst>
 </file>
@@ -408,47 +408,47 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644746C3-9A3B-4441-A74F-EA38B5D68739}">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,48 +788,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -855,31 +855,31 @@
         <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="N8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="9">
         <v>0</v>
       </c>
@@ -887,16 +887,16 @@
         <f t="shared" ref="M9:M43" si="0">L9+B9-1</f>
         <v>0</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="20"/>
+      <c r="N9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -921,16 +921,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="22"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -947,14 +947,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
@@ -987,20 +987,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="16">
+      <c r="B13" s="22">
         <v>1</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>25</v>
@@ -1018,11 +1018,11 @@
         <v>29</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1031,33 +1031,33 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
+      <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
@@ -1067,14 +1067,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="23"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="16">
+      <c r="B15" s="22">
         <v>1</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1091,14 +1091,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1115,16 +1115,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="23"/>
+      <c r="N16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1141,14 +1141,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
+      <c r="B18" s="15">
         <v>1</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1165,14 +1165,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
+      <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1189,628 +1189,628 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="22">
+        <v>4</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="25"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="22">
+        <v>4</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="22">
+        <v>4</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="22">
+        <v>4</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="25"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="22">
+        <v>4</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="25"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="22">
+        <v>4</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="22">
+        <v>4</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="25"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="16">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="16">
-        <v>4</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="6">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="16">
-        <v>4</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="16">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="16">
-        <v>4</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="16">
-        <v>4</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>4</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="N30" s="23"/>
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>4</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="8">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="M29" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="N31" s="23"/>
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N32" s="23"/>
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="25"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="8">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="M30" s="8">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="8">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="0"/>
+      <c r="M34" s="8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="25"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="N35" s="23"/>
+      <c r="O35" s="25"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>4</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="8">
-        <f t="shared" si="1"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="N36" s="23"/>
+      <c r="O36" s="25"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="8">
-        <f t="shared" si="0"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="N37" s="23"/>
+      <c r="O37" s="25"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>4</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="N38" s="23"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>4</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="N39" s="23"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>4</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="8">
-        <f t="shared" si="1"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="25"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>4</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="8">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
-        <v>4</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="8">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="M34" s="8">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
-        <v>4</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="8">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="M35" s="8">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
-        <v>4</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="8">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M36" s="8">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
-        <v>4</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="8">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="M37" s="8">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
-        <v>4</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="8">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="M38" s="8">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="12">
-        <v>4</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="8">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
-        <v>4</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="8">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="20">
-        <v>4</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="9">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="9">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="20">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="9">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="20">
-        <v>1</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -1819,11 +1819,66 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="N29:N40"/>
+    <mergeCell ref="O20:O40"/>
+    <mergeCell ref="N20:N28"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I1:O4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="O12:O19"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="N41:O43"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D41:K41"/>
@@ -1840,61 +1895,6 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="I1:O4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="O12:O19"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="N29:N40"/>
-    <mergeCell ref="O20:O40"/>
-    <mergeCell ref="N20:N28"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
